--- a/SatteliteData/SUM.xlsx
+++ b/SatteliteData/SUM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\SatelliteResearch\SatteliteData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS Pojects\SatelliteResearch\SatteliteData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D963F7C-A279-4894-9B92-95B92D49C7E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D711657-3981-4DAF-8772-4699F6285376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{AB0A3311-D21E-433B-8FAE-327E72BF19C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB0A3311-D21E-433B-8FAE-327E72BF19C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -7750,13 +7750,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C689440A-084F-4885-9F3D-5A49366FF89A}">
   <dimension ref="A3:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="16" max="16" width="10.75" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
